--- a/Journal_Travail.xlsx
+++ b/Journal_Travail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohzitouni\Desktop\PROG_PROJ_BZI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\B_Z dossier\Prog\Projet2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC0BD56-3B34-4A28-AE1D-D0C54BDC41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF03912-2815-416C-BA5B-935F5F5D89FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Hebdomadaire" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Journal de Travail Hebdomadaire</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>LFO et HMT vont devoir faire des pull request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en commun </t>
+  </si>
+  <si>
+    <t>BZI LFO HMI</t>
+  </si>
+  <si>
+    <t>Push de tout les fichier sur Github</t>
+  </si>
+  <si>
+    <t>plusieur conflit</t>
+  </si>
+  <si>
+    <t>Debug du code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structogramme </t>
+  </si>
+  <si>
+    <t>terminer</t>
   </si>
 </sst>
 </file>
@@ -190,7 +211,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -203,10 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,301 +556,411 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
